--- a/Testing/Authored TCs/US-2.5_Accountant_Vendor management fuctionality_TCs.xlsx
+++ b/Testing/Authored TCs/US-2.5_Accountant_Vendor management fuctionality_TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Authoring TC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/deepanshu_singla_dxc_com/Documents/Documents/Alchemy/Accounting system/Testing/Authored TCs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{D0BEC5FD-1B06-4EED-8FDA-C60E29566923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FFB9381-A5B8-4DC8-A474-D9A138EA37B6}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{D0BEC5FD-1B06-4EED-8FDA-C60E29566923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4854DA4B-DABC-42EE-9728-10151670425F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BB555361-C202-42F7-AB72-ABC48CA82E11}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>Subject</t>
   </si>
@@ -268,9 +268,6 @@
     <t>Validate vendor ID field .</t>
   </si>
   <si>
-    <t>Validate contactID field.</t>
-  </si>
-  <si>
     <t>Validate vendor name field</t>
   </si>
   <si>
@@ -278,6 +275,15 @@
   </si>
   <si>
     <t>Step 11</t>
+  </si>
+  <si>
+    <t>It should not be displayed and should be as per parameter.</t>
+  </si>
+  <si>
+    <t>Validate companytID field.</t>
+  </si>
+  <si>
+    <t>Validate companyID field.</t>
   </si>
 </sst>
 </file>
@@ -670,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8D137F-15F3-4AF5-93A6-EE3F3F6817CE}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="73" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53:F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -897,7 +903,7 @@
         <v>67</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -908,10 +914,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -922,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>23</v>
@@ -936,7 +942,7 @@
         <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>23</v>
@@ -1237,7 +1243,7 @@
         <v>67</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -1248,10 +1254,10 @@
         <v>14</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -1262,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>23</v>
@@ -1273,10 +1279,10 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>23</v>
@@ -1462,7 +1468,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1473,10 +1479,10 @@
         <v>67</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1484,10 +1490,10 @@
         <v>12</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -1498,7 +1504,7 @@
         <v>13</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>26</v>
@@ -1512,7 +1518,7 @@
         <v>14</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>26</v>
